--- a/readme/chatgptfunctions.xlsx
+++ b/readme/chatgptfunctions.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="74">
   <si>
     <t>Id</t>
   </si>
@@ -407,9 +407,6 @@
         }
     }
 }</t>
-  </si>
-  <si>
-    <t>https://ows.yesmro.cn/api/ai/extra/GetWeather?city={city}</t>
   </si>
   <si>
     <t>2023-07-16 08:43:16</t>
@@ -1427,7 +1424,7 @@
   <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.64285714285714" defaultRowHeight="17.6"/>
@@ -1862,20 +1859,18 @@
       <c r="G12" t="s">
         <v>18</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12"/>
+      <c r="I12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12" t="s">
         <v>71</v>
       </c>
-      <c r="I12" t="s">
-        <v>18</v>
-      </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>72</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>73</v>
-      </c>
-      <c r="L12" t="s">
-        <v>74</v>
       </c>
       <c r="M12" t="s">
         <v>18</v>

--- a/readme/chatgptfunctions.xlsx
+++ b/readme/chatgptfunctions.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="77">
   <si>
     <t>Id</t>
   </si>
@@ -69,6 +69,44 @@
   </si>
   <si>
     <t>Internal</t>
+  </si>
+  <si>
+    <t>SaveResultToFile</t>
+  </si>
+  <si>
+    <t>将助理任务的报告结果追加写入到指定的文件并自动将最新的文件发送给用户，如果文件不存在会自动创建。不需要重复要写入的内容，只需要指定助理的角色名称，会自动获取到上下文中该助理输出的结果并加入文件。如果追加内容，不需要更新或编辑原有内容，优先使用本方法而不是文件助手。</t>
+  </si>
+  <si>
+    <t>{
+    "type":"object",
+    "required":["role","title","filename"],
+    "properties":{
+        "role":{
+            "type":"string",
+            "description":"本次要保存到文件的内容对应的角色名称，比如主持人、产品经理、程序员、测试人员等"
+        },
+        "title":{
+            "type":"string",
+            "description":"本次内容对应的报告的主题，或分步骤的段落标题。"
+        },
+        "filename":{
+            "type":"string",
+            "description":"需要写入内容的文件名，使用相对路径。"
+        }
+    }
+}</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>2025-03-24 11:05:01</t>
+  </si>
+  <si>
+    <t>万能助理</t>
   </si>
   <si>
     <t>OneAgent</t>
@@ -91,8 +129,8 @@
         },
         "skill":{
             "type":"string",
-            "enum":["信息搜集","操作助手","方案设计","代码编写","文档编写","审阅者","计算者"],
-            "description":"该角色所需要的技能。其中每种技能所包含的能力：\n信息搜集：可以调用Google查找相关的信息并回答指定的问题，能够自动拆解复杂的搜索问题进行多步骤搜索后合并答案。但是它只负责收集信息，不负责写报告和方案。\n操作助手：可以调用浏览器，或操作读写本地文件。对于Google搜索无法解决的问题，比如需要打开某个特定的网站查找信息，该角色可以自动调用浏览器打开指定的网址并在网站内自动导航找到所需的信息。请给出具体的网址，以及尽量明确的操作路径与所需达成的结果。该浏览器无法打开Google搜索引擎页面。如果是宽泛的信息搜集任务，优先使用信息搜集角色。对于文件读写任务，请给出文件名和要进行的修改，比如将信息搜索助手产生的结果写入result.txt文件中。\n方案设计：可以根据指定的需求及背景信息设计出合理的解决方案，能够主动思考并自动向用户追问来补充客户未提到的潜在需求。\n代码编写：可以根据指定的项目方案编写出合理的高质量的代码。\n文档编写：可以根据指定的需求以及所有可用的信息，编写出结构合理界面美观的文档。但是它没有搜集信息的能力。如果需要控制界面美观度，请指定使用HTML格式来输出文档，并说明想要的美观度与风格。\n审阅者：可以根据指定的需求对文档、代码等进行审阅，提出合理的修改意见。\n计算者：可以计算指定的数学表达式并给出精确的结果。"
+            "enum":["信息搜集","操作助手","文件助手","方案设计","代码编写","文档编写","审阅者","计算者"],
+            "description":"该角色所需要的技能。其中每种技能所包含的能力：\n信息搜集：可以调用Google查找相关的信息并回答指定的问题，能够自动拆解复杂的搜索问题进行多步骤搜索后合并答案。但是它只负责收集信息，不负责写报告和方案。\n操作助手：可以调用浏览器。对于Google搜索无法解决的问题，比如需要打开某个特定的网站查找信息，该角色可以自动调用浏览器打开指定的网址并在网站内自动导航找到所需的信息。请给出具体的网址，以及尽量明确的操作路径与所需达成的结果。该浏览器无法打开Google搜索引擎页面。如果是宽泛的信息搜集任务，应优先使用信息搜集角色。\n文件助手：可以操作读写本地文件。对于文件读写任务，请给出文件名和要进行的修改，比如将本阶段任务完成结果更新进todo.md文件中对应的位置。\n方案设计：可以根据指定的需求及背景信息设计出合理的解决方案，能够主动思考并自动向用户追问来补充客户未提到的潜在需求。\n代码编写：可以根据指定的项目方案编写出合理的高质量的代码。\n文档编写：可以根据指定的需求以及所有可用的信息，编写出结构合理界面美观的文档。但是它没有搜集信息的能力。如果需要控制界面美观度，请指定使用HTML格式来输出文档，并说明想要的美观度与风格。\n审阅者：可以根据指定的需求对文档、代码等进行审阅，提出合理的修改意见。\n计算者：可以计算指定的数学表达式并给出精确的结果。"
         },
         "need_contexts":{
             "type":"array",
@@ -105,16 +143,7 @@
 }</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>2025-03-13 13:08:06</t>
-  </si>
-  <si>
-    <t>万能助理</t>
   </si>
   <si>
     <t>SearchAndSummarize</t>
@@ -185,9 +214,6 @@
         }
     }
 }</t>
-  </si>
-  <si>
-    <t>fake</t>
   </si>
   <si>
     <t>2024-09-21 07:54:45</t>
@@ -1421,19 +1447,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.64285714285714" defaultRowHeight="17.6"/>
   <cols>
     <col min="1" max="1" width="7.33928571428571" customWidth="1"/>
     <col min="2" max="2" width="14.3392857142857" customWidth="1"/>
-    <col min="3" max="3" width="26.9285714285714" customWidth="1"/>
-    <col min="4" max="4" width="81.8392857142857" customWidth="1"/>
-    <col min="5" max="5" width="50.7142857142857" customWidth="1"/>
+    <col min="3" max="3" width="26.4642857142857" customWidth="1"/>
+    <col min="4" max="5" width="50.7142857142857" customWidth="1"/>
     <col min="6" max="6" width="17.3392857142857" customWidth="1"/>
     <col min="7" max="7" width="15.3392857142857" customWidth="1"/>
     <col min="8" max="8" width="50.7142857142857" customWidth="1"/>
@@ -1486,7 +1511,7 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>
@@ -1521,7 +1546,7 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
@@ -1548,7 +1573,7 @@
         <v>24</v>
       </c>
       <c r="L3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="M3" t="s">
         <v>18</v>
@@ -1556,19 +1581,19 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
       </c>
       <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>26</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>27</v>
-      </c>
-      <c r="E4" t="s">
-        <v>28</v>
       </c>
       <c r="F4" t="s">
         <v>17</v>
@@ -1580,10 +1605,10 @@
         <v>18</v>
       </c>
       <c r="J4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" t="s">
         <v>29</v>
-      </c>
-      <c r="L4" t="s">
-        <v>30</v>
       </c>
       <c r="M4" t="s">
         <v>18</v>
@@ -1591,19 +1616,19 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
       </c>
       <c r="C5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" t="s">
         <v>31</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>32</v>
-      </c>
-      <c r="E5" t="s">
-        <v>33</v>
       </c>
       <c r="F5" t="s">
         <v>17</v>
@@ -1611,17 +1636,14 @@
       <c r="G5" t="s">
         <v>18</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5" t="s">
         <v>34</v>
-      </c>
-      <c r="I5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" t="s">
-        <v>35</v>
-      </c>
-      <c r="L5" t="s">
-        <v>36</v>
       </c>
       <c r="M5" t="s">
         <v>18</v>
@@ -1629,19 +1651,19 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
       </c>
       <c r="C6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" t="s">
         <v>37</v>
-      </c>
-      <c r="D6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" t="s">
-        <v>39</v>
       </c>
       <c r="F6" t="s">
         <v>17</v>
@@ -1649,14 +1671,15 @@
       <c r="G6" t="s">
         <v>18</v>
       </c>
+      <c r="H6"/>
       <c r="I6" t="s">
         <v>18</v>
       </c>
       <c r="J6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="L6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="M6" t="s">
         <v>18</v>
@@ -1664,34 +1687,34 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
       </c>
       <c r="C7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" t="s">
         <v>42</v>
       </c>
-      <c r="D7" t="s">
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" t="s">
         <v>43</v>
       </c>
-      <c r="E7" t="s">
+      <c r="L7" t="s">
         <v>44</v>
-      </c>
-      <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L7" t="s">
-        <v>46</v>
       </c>
       <c r="M7" t="s">
         <v>18</v>
@@ -1699,34 +1722,34 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
       </c>
       <c r="C8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" t="s">
         <v>47</v>
       </c>
-      <c r="D8" t="s">
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" t="s">
         <v>48</v>
       </c>
-      <c r="E8" t="s">
+      <c r="L8" t="s">
         <v>49</v>
-      </c>
-      <c r="F8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J8" t="s">
-        <v>50</v>
-      </c>
-      <c r="L8" t="s">
-        <v>51</v>
       </c>
       <c r="M8" t="s">
         <v>18</v>
@@ -1734,34 +1757,34 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
       </c>
       <c r="C9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" t="s">
         <v>52</v>
       </c>
-      <c r="D9" t="s">
+      <c r="F9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9" t="s">
         <v>53</v>
       </c>
-      <c r="E9" t="s">
+      <c r="L9" t="s">
         <v>54</v>
-      </c>
-      <c r="F9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9" t="s">
-        <v>18</v>
-      </c>
-      <c r="J9" t="s">
-        <v>55</v>
-      </c>
-      <c r="L9" t="s">
-        <v>56</v>
       </c>
       <c r="M9" t="s">
         <v>18</v>
@@ -1769,34 +1792,34 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
       </c>
       <c r="C10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" t="s">
         <v>57</v>
       </c>
-      <c r="D10" t="s">
+      <c r="F10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" t="s">
         <v>58</v>
       </c>
-      <c r="E10" t="s">
+      <c r="L10" t="s">
         <v>59</v>
-      </c>
-      <c r="F10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I10" t="s">
-        <v>18</v>
-      </c>
-      <c r="J10" t="s">
-        <v>60</v>
-      </c>
-      <c r="L10" t="s">
-        <v>61</v>
       </c>
       <c r="M10" t="s">
         <v>18</v>
@@ -1804,54 +1827,54 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
       </c>
       <c r="C11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" t="s">
         <v>62</v>
       </c>
-      <c r="D11" t="s">
+      <c r="F11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" t="s">
         <v>63</v>
       </c>
-      <c r="E11" t="s">
+      <c r="L11" t="s">
         <v>64</v>
       </c>
-      <c r="F11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J11" t="s">
-        <v>65</v>
-      </c>
-      <c r="L11" t="s">
-        <v>66</v>
-      </c>
       <c r="M11" t="s">
-        <v>67</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D12" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E12" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F12" t="s">
         <v>17</v>
@@ -1859,20 +1882,55 @@
       <c r="G12" t="s">
         <v>18</v>
       </c>
-      <c r="H12"/>
       <c r="I12" t="s">
         <v>18</v>
       </c>
       <c r="J12" t="s">
+        <v>68</v>
+      </c>
+      <c r="L12" t="s">
+        <v>69</v>
+      </c>
+      <c r="M12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
         <v>71</v>
       </c>
-      <c r="K12" t="s">
+      <c r="D13" t="s">
         <v>72</v>
       </c>
-      <c r="L12" t="s">
+      <c r="E13" t="s">
         <v>73</v>
       </c>
-      <c r="M12" t="s">
+      <c r="F13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13"/>
+      <c r="I13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J13" t="s">
+        <v>74</v>
+      </c>
+      <c r="K13" t="s">
+        <v>75</v>
+      </c>
+      <c r="L13" t="s">
+        <v>76</v>
+      </c>
+      <c r="M13" t="s">
         <v>18</v>
       </c>
     </row>
